--- a/Import(1).xlsx
+++ b/Import(1).xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chester Martinez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB288E2-E686-45FB-BF44-504E41FD9584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951EFC0B-2A7B-4819-B7EE-67BE93A4368D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CC891460-2381-4709-B72F-DB6A6781AF31}"/>
   </bookViews>
   <sheets>
-    <sheet name="BACOOR" sheetId="3" r:id="rId1"/>
-    <sheet name="MAKATI" sheetId="1" r:id="rId2"/>
-    <sheet name="MANDALUYONG" sheetId="2" r:id="rId3"/>
+    <sheet name="BACOOR" sheetId="6" r:id="rId1"/>
+    <sheet name="MAKATI" sheetId="7" r:id="rId2"/>
+    <sheet name="MANDALUYONG" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -661,7 +661,7 @@
     <t>Gramercy  REs. 6603</t>
   </si>
   <si>
-    <t>February 23,2024</t>
+    <t>Febraury 23,2024</t>
   </si>
   <si>
     <t xml:space="preserve">GUO JUNSHENG </t>
@@ -809,23 +809,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-3409]mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="165" formatCode="[Color10]#\ &quot;Days Remaining&quot;;[Color3]#\ &quot;Days Past Due&quot;;[Color5]&quot;Today&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -836,7 +826,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -844,39 +834,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,96 +1173,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E756BE-A068-4CD4-A3F7-6CFDAA4F1946}">
-  <dimension ref="B3:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D233CB29-FD35-4126-AB63-1233E3C46810}">
+  <dimension ref="A3:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="M3" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="N3" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4">
+      <c r="O3">
+        <v>44774</v>
+      </c>
+      <c r="P3">
+        <v>44805</v>
+      </c>
+      <c r="Q3">
+        <v>44835</v>
+      </c>
+      <c r="R3">
+        <v>44866</v>
+      </c>
+      <c r="S3">
+        <v>44896</v>
+      </c>
+      <c r="T3">
+        <v>44927</v>
+      </c>
+      <c r="U3">
+        <v>44958</v>
+      </c>
+      <c r="V3">
+        <v>44986</v>
+      </c>
+      <c r="W3">
+        <v>45017</v>
+      </c>
+      <c r="X3">
+        <v>45047</v>
+      </c>
+      <c r="Y3">
         <v>45078</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Z3">
         <v>45108</v>
       </c>
-      <c r="R3" s="4">
+      <c r="AA3">
         <v>45139</v>
       </c>
-      <c r="S3" s="4">
+      <c r="AB3">
         <v>45170</v>
       </c>
-      <c r="T3" s="4">
+      <c r="AC3">
         <v>45200</v>
       </c>
-      <c r="U3" s="4">
+      <c r="AD3">
         <v>45231</v>
       </c>
-      <c r="V3" s="4">
+      <c r="AE3">
         <v>45261</v>
       </c>
-      <c r="W3" s="4">
+      <c r="AF3">
         <v>45292</v>
       </c>
-      <c r="X3" s="4">
+      <c r="AG3">
         <v>45323</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="AH3">
         <v>45352</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="AI3">
         <v>45383</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AJ3">
         <v>45413</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AK3">
         <v>45444</v>
+      </c>
+      <c r="AL3">
+        <v>45497</v>
+      </c>
+      <c r="AM3">
+        <v>45528</v>
+      </c>
+      <c r="AN3">
+        <v>45559</v>
+      </c>
+      <c r="AO3">
+        <v>45589</v>
+      </c>
+      <c r="AP3">
+        <v>45620</v>
+      </c>
+      <c r="AQ3">
+        <v>45650</v>
       </c>
     </row>
   </sheetData>
@@ -1308,200 +1334,198 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772FF07C-279B-4FAC-8EE4-1A69B5FF2E25}">
-  <dimension ref="B3:AR38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79EE19-AA11-4D6D-80D6-D45CA31D333D}">
+  <dimension ref="A3:AQ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="55.5703125" customWidth="1"/>
-    <col min="3" max="3" width="40.42578125" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
         <v>12</v>
       </c>
+      <c r="O3">
+        <v>44774</v>
+      </c>
       <c r="P3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="Q3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="R3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="S3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="T3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="U3">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="V3">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="W3">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="X3">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="Y3">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="Z3">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="AA3">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="AB3">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="AC3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="AD3">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="AE3">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="AF3">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="AG3">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="AH3">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="AI3">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="AJ3">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="AK3">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="AL3">
-        <v>45444</v>
+        <v>45497</v>
       </c>
       <c r="AM3">
-        <v>45497</v>
+        <v>45528</v>
       </c>
       <c r="AN3">
-        <v>45528</v>
+        <v>45559</v>
       </c>
       <c r="AO3">
-        <v>45559</v>
+        <v>45589</v>
       </c>
       <c r="AP3">
-        <v>45589</v>
+        <v>45620</v>
       </c>
       <c r="AQ3">
-        <v>45620</v>
-      </c>
-      <c r="AR3">
         <v>45650</v>
       </c>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
         <v>15</v>
       </c>
+      <c r="F4">
+        <v>45356</v>
+      </c>
       <c r="G4">
-        <v>45356</v>
-      </c>
-      <c r="H4">
         <v>45720</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>16</v>
       </c>
-      <c r="J4">
+      <c r="I4">
         <v>25000</v>
       </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
       <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="e">
+      <c r="N4" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
       <c r="W4" t="s">
         <v>19</v>
       </c>
@@ -1541,44 +1565,44 @@
       <c r="AI4" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
         <v>22</v>
       </c>
+      <c r="F5">
+        <v>45298</v>
+      </c>
       <c r="G5">
-        <v>45298</v>
-      </c>
-      <c r="H5">
         <v>45663</v>
       </c>
-      <c r="I5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="J5">
+      <c r="I5">
         <v>21000</v>
       </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
       <c r="M5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" t="s">
         <v>24</v>
       </c>
-      <c r="O5" t="e">
+      <c r="N5" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
       <c r="U5" t="s">
         <v>19</v>
       </c>
@@ -1624,743 +1648,743 @@
       <c r="AI5" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>182</v>
+      </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6">
+        <v>45710</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6">
+        <v>22000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>207</v>
-      </c>
-      <c r="H6">
-        <v>45710</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7">
+        <v>45427</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7">
+        <v>19000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>20000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9">
+        <v>18500</v>
+      </c>
+      <c r="L9" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S9" t="s">
+        <v>19</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
+        <v>19</v>
+      </c>
+      <c r="V9" t="s">
+        <v>19</v>
+      </c>
+      <c r="W9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>45249</v>
+      </c>
+      <c r="G10">
+        <v>45614</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10">
+        <v>30000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M10" t="s">
+        <v>53</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S10" t="s">
+        <v>19</v>
+      </c>
+      <c r="T10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V10" t="s">
+        <v>19</v>
+      </c>
+      <c r="W10" t="s">
+        <v>19</v>
+      </c>
+      <c r="X10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
         <v>28</v>
       </c>
-      <c r="J6">
+      <c r="I11">
+        <v>24000</v>
+      </c>
+      <c r="J11">
         <v>22000</v>
       </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" t="e">
+      <c r="K11">
+        <v>2000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="V6" t="s">
-        <v>19</v>
-      </c>
-      <c r="W6" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7">
-        <v>45427</v>
-      </c>
-      <c r="I7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>19000</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" t="e">
+      <c r="Z11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>45355</v>
+      </c>
+      <c r="G12">
+        <v>45719</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12">
+        <v>18000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="Y7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8">
-        <v>20000</v>
-      </c>
-      <c r="M8" t="s">
-        <v>41</v>
-      </c>
-      <c r="N8" t="s">
-        <v>42</v>
-      </c>
-      <c r="O8" t="e">
+      <c r="V12" t="s">
+        <v>19</v>
+      </c>
+      <c r="W12" t="s">
+        <v>19</v>
+      </c>
+      <c r="X12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>45361</v>
+      </c>
+      <c r="G13">
+        <v>45725</v>
+      </c>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13">
+        <v>25000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="Y8" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9">
-        <v>18500</v>
-      </c>
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="e">
+      <c r="V13" t="s">
+        <v>19</v>
+      </c>
+      <c r="W13" t="s">
+        <v>19</v>
+      </c>
+      <c r="X13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14">
+        <v>18000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>77</v>
+      </c>
+      <c r="M14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="P9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>19</v>
-      </c>
-      <c r="R9" t="s">
-        <v>19</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
-      </c>
-      <c r="T9" t="s">
-        <v>19</v>
-      </c>
-      <c r="U9" t="s">
-        <v>19</v>
-      </c>
-      <c r="V9" t="s">
-        <v>19</v>
-      </c>
-      <c r="W9" t="s">
-        <v>19</v>
-      </c>
-      <c r="X9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="V14" t="s">
+        <v>19</v>
+      </c>
+      <c r="W14" t="s">
+        <v>19</v>
+      </c>
+      <c r="X14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>186</v>
       </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G10">
-        <v>45249</v>
-      </c>
-      <c r="H10">
-        <v>45614</v>
-      </c>
-      <c r="I10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J10">
-        <v>30000</v>
-      </c>
-      <c r="M10" t="s">
-        <v>52</v>
-      </c>
-      <c r="N10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O10" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S10" t="s">
-        <v>19</v>
-      </c>
-      <c r="T10" t="s">
-        <v>19</v>
-      </c>
-      <c r="U10" t="s">
-        <v>19</v>
-      </c>
-      <c r="V10" t="s">
-        <v>19</v>
-      </c>
-      <c r="W10" t="s">
-        <v>19</v>
-      </c>
-      <c r="X10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>187</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" t="s">
+        <v>82</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
         <v>28</v>
       </c>
-      <c r="J11">
-        <v>24000</v>
-      </c>
-      <c r="K11">
-        <v>22000</v>
-      </c>
-      <c r="L11">
-        <v>2000</v>
-      </c>
-      <c r="M11" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12">
-        <v>45355</v>
-      </c>
-      <c r="H12">
-        <v>45719</v>
-      </c>
-      <c r="I12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12">
-        <v>18000</v>
-      </c>
-      <c r="M12" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="W12" t="s">
-        <v>19</v>
-      </c>
-      <c r="X12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13">
-        <v>45361</v>
-      </c>
-      <c r="H13">
-        <v>45725</v>
-      </c>
-      <c r="I13" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13">
-        <v>25000</v>
-      </c>
-      <c r="M13" t="s">
-        <v>71</v>
-      </c>
-      <c r="N13" t="s">
-        <v>72</v>
-      </c>
-      <c r="O13" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="W13" t="s">
-        <v>19</v>
-      </c>
-      <c r="X13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14">
-        <v>18000</v>
-      </c>
-      <c r="M14" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" t="s">
-        <v>78</v>
-      </c>
-      <c r="O14" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="W14" t="s">
-        <v>19</v>
-      </c>
-      <c r="X14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
+      <c r="I15">
+        <v>23000</v>
       </c>
       <c r="J15">
         <v>23000</v>
       </c>
-      <c r="K15">
-        <v>23000</v>
+      <c r="L15" t="s">
+        <v>84</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
-      </c>
-      <c r="N15" t="s">
         <v>85</v>
       </c>
-      <c r="O15" t="e">
+      <c r="N15" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="V15" t="s">
+        <v>19</v>
+      </c>
       <c r="W15" t="s">
         <v>19</v>
       </c>
@@ -2385,44 +2409,44 @@
       <c r="AD15" t="s">
         <v>19</v>
       </c>
-      <c r="AE15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="2:44" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>189</v>
+      </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
         <v>88</v>
       </c>
+      <c r="F16" t="s">
+        <v>89</v>
+      </c>
       <c r="G16" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
-      </c>
-      <c r="I16" t="s">
         <v>91</v>
       </c>
-      <c r="J16">
+      <c r="I16">
         <v>55000</v>
       </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
       <c r="M16" t="s">
-        <v>59</v>
-      </c>
-      <c r="N16" t="s">
         <v>92</v>
       </c>
-      <c r="O16" t="e">
+      <c r="N16" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="W16" t="s">
+        <v>19</v>
+      </c>
       <c r="X16" t="s">
         <v>19</v>
       </c>
@@ -2459,44 +2483,44 @@
       <c r="AI16" t="s">
         <v>19</v>
       </c>
-      <c r="AJ16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>190</v>
+      </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" t="s">
         <v>95</v>
       </c>
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
-      </c>
-      <c r="I17" t="s">
         <v>64</v>
       </c>
-      <c r="J17">
+      <c r="I17">
         <v>20000</v>
       </c>
+      <c r="L17" t="s">
+        <v>98</v>
+      </c>
       <c r="M17" t="s">
-        <v>98</v>
-      </c>
-      <c r="N17" t="s">
         <v>99</v>
       </c>
-      <c r="O17" t="e">
+      <c r="N17" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="X17" t="s">
+        <v>19</v>
+      </c>
       <c r="Y17" t="s">
         <v>19</v>
       </c>
@@ -2527,44 +2551,44 @@
       <c r="AH17" t="s">
         <v>19</v>
       </c>
-      <c r="AI17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" t="s">
         <v>102</v>
       </c>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" t="s">
         <v>104</v>
+      </c>
+      <c r="I18">
+        <v>17000</v>
       </c>
       <c r="J18">
         <v>17000</v>
       </c>
-      <c r="K18">
-        <v>17000</v>
+      <c r="L18" t="s">
+        <v>34</v>
       </c>
       <c r="M18" t="s">
-        <v>34</v>
-      </c>
-      <c r="N18" t="s">
         <v>105</v>
       </c>
-      <c r="O18" t="e">
+      <c r="N18" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="X18" t="s">
+        <v>19</v>
+      </c>
       <c r="Y18" t="s">
         <v>19</v>
       </c>
@@ -2583,44 +2607,44 @@
       <c r="AD18" t="s">
         <v>19</v>
       </c>
-      <c r="AE18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>188</v>
+      </c>
       <c r="B19" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
         <v>108</v>
       </c>
+      <c r="F19">
+        <v>45253</v>
+      </c>
       <c r="G19">
-        <v>45253</v>
-      </c>
-      <c r="H19">
         <v>45434</v>
       </c>
-      <c r="I19" t="s">
+      <c r="H19" t="s">
         <v>109</v>
       </c>
-      <c r="J19">
+      <c r="I19">
         <v>32000</v>
       </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
       <c r="M19" t="s">
-        <v>110</v>
-      </c>
-      <c r="N19" t="s">
         <v>111</v>
       </c>
-      <c r="O19" t="e">
+      <c r="N19" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="X19" t="s">
+        <v>19</v>
+      </c>
       <c r="Y19" t="s">
         <v>19</v>
       </c>
@@ -2651,44 +2675,44 @@
       <c r="AH19" t="s">
         <v>19</v>
       </c>
-      <c r="AI19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
       <c r="B20" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" t="s">
         <v>114</v>
       </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
       <c r="G20" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" t="s">
-        <v>116</v>
-      </c>
-      <c r="I20" t="s">
         <v>109</v>
       </c>
-      <c r="J20">
+      <c r="I20">
         <v>33000</v>
       </c>
+      <c r="L20" t="s">
+        <v>117</v>
+      </c>
       <c r="M20" t="s">
-        <v>117</v>
-      </c>
-      <c r="N20" t="s">
         <v>118</v>
       </c>
-      <c r="O20" t="e">
+      <c r="N20" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="Y20" t="s">
+        <v>19</v>
+      </c>
       <c r="Z20" t="s">
         <v>19</v>
       </c>
@@ -2719,44 +2743,44 @@
       <c r="AI20" t="s">
         <v>19</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>191</v>
+      </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" t="s">
         <v>121</v>
       </c>
+      <c r="F21" t="s">
+        <v>122</v>
+      </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
-      </c>
-      <c r="I21" t="s">
         <v>109</v>
       </c>
-      <c r="J21">
+      <c r="I21">
         <v>28000</v>
       </c>
+      <c r="L21" t="s">
+        <v>124</v>
+      </c>
       <c r="M21" t="s">
-        <v>124</v>
-      </c>
-      <c r="N21" t="s">
         <v>125</v>
       </c>
-      <c r="O21" t="e">
+      <c r="N21" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="Y21" t="s">
+        <v>19</v>
+      </c>
       <c r="Z21" t="s">
         <v>19</v>
       </c>
@@ -2787,44 +2811,44 @@
       <c r="AI21" t="s">
         <v>19</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>192</v>
+      </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E22" t="s">
         <v>128</v>
       </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" t="s">
         <v>131</v>
       </c>
-      <c r="J22">
+      <c r="I22">
         <v>35000</v>
       </c>
+      <c r="L22" t="s">
+        <v>132</v>
+      </c>
       <c r="M22" t="s">
-        <v>132</v>
-      </c>
-      <c r="N22" t="s">
         <v>133</v>
       </c>
-      <c r="O22" t="e">
+      <c r="N22" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="Y22" t="s">
+        <v>19</v>
+      </c>
       <c r="Z22" t="s">
         <v>19</v>
       </c>
@@ -2855,49 +2879,49 @@
       <c r="AI22" t="s">
         <v>19</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>134</v>
+      </c>
       <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>193</v>
+      </c>
       <c r="B24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" t="s">
         <v>136</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" t="s">
         <v>137</v>
       </c>
+      <c r="F24">
+        <v>45169</v>
+      </c>
       <c r="G24">
-        <v>45169</v>
-      </c>
-      <c r="H24">
         <v>45534</v>
       </c>
-      <c r="I24" t="s">
+      <c r="H24" t="s">
         <v>138</v>
       </c>
-      <c r="J24">
+      <c r="I24">
         <v>25000</v>
       </c>
+      <c r="L24" t="s">
+        <v>139</v>
+      </c>
       <c r="M24" t="s">
-        <v>139</v>
-      </c>
-      <c r="N24" t="s">
         <v>140</v>
       </c>
-      <c r="O24" t="e">
+      <c r="N24" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="AD24" t="s">
+        <v>19</v>
+      </c>
       <c r="AE24" t="s">
         <v>19</v>
       </c>
@@ -2913,44 +2937,44 @@
       <c r="AI24" t="s">
         <v>19</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>194</v>
+      </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c r="C25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D25" t="s">
         <v>142</v>
       </c>
-      <c r="E25">
+      <c r="D25">
         <v>9684210187</v>
       </c>
+      <c r="F25">
+        <v>45153</v>
+      </c>
       <c r="G25">
-        <v>45153</v>
-      </c>
-      <c r="H25">
         <v>45518</v>
       </c>
-      <c r="I25" t="s">
+      <c r="H25" t="s">
         <v>109</v>
       </c>
-      <c r="J25">
+      <c r="I25">
         <v>26000</v>
       </c>
+      <c r="L25" t="s">
+        <v>59</v>
+      </c>
       <c r="M25" t="s">
-        <v>59</v>
-      </c>
-      <c r="N25" t="s">
         <v>92</v>
       </c>
-      <c r="O25" t="e">
+      <c r="N25" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="AB25" t="s">
+        <v>19</v>
+      </c>
       <c r="AC25" t="s">
         <v>19</v>
       </c>
@@ -2972,44 +2996,44 @@
       <c r="AI25" t="s">
         <v>19</v>
       </c>
-      <c r="AJ25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>195</v>
+      </c>
       <c r="B26" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" t="s">
         <v>144</v>
       </c>
-      <c r="E26">
+      <c r="D26">
         <v>9608336399</v>
       </c>
+      <c r="F26">
+        <v>45178</v>
+      </c>
       <c r="G26">
-        <v>45178</v>
-      </c>
-      <c r="H26">
         <v>45543</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" t="s">
         <v>104</v>
       </c>
-      <c r="J26">
+      <c r="I26">
         <v>95000</v>
       </c>
+      <c r="L26" t="s">
+        <v>145</v>
+      </c>
       <c r="M26" t="s">
-        <v>145</v>
-      </c>
-      <c r="N26" t="s">
         <v>146</v>
       </c>
-      <c r="O26" t="e">
+      <c r="N26" t="e">
         <v>#VALUE!</v>
       </c>
+      <c r="AB26" t="s">
+        <v>19</v>
+      </c>
       <c r="AC26" t="s">
         <v>19</v>
       </c>
@@ -3031,37 +3055,37 @@
       <c r="AI26" t="s">
         <v>19</v>
       </c>
-      <c r="AJ26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
       <c r="B27" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" t="s">
         <v>148</v>
       </c>
+      <c r="F27">
+        <v>45194</v>
+      </c>
       <c r="G27">
-        <v>45194</v>
-      </c>
-      <c r="H27">
         <v>45559</v>
       </c>
-      <c r="I27" t="s">
+      <c r="H27" t="s">
         <v>109</v>
       </c>
-      <c r="J27">
+      <c r="I27">
         <v>40000</v>
       </c>
+      <c r="L27" t="s">
+        <v>29</v>
+      </c>
       <c r="M27" t="s">
-        <v>29</v>
-      </c>
-      <c r="N27" t="s">
         <v>149</v>
+      </c>
+      <c r="N27" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="O27" t="e">
         <v>#VALUE!</v>
@@ -3078,117 +3102,117 @@
       <c r="S27" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="T27" t="e">
+      <c r="AC27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28">
+        <v>9054617215</v>
+      </c>
+      <c r="F28" t="s">
+        <v>152</v>
+      </c>
+      <c r="G28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+      <c r="I28">
+        <v>28000</v>
+      </c>
+      <c r="L28" t="s">
+        <v>154</v>
+      </c>
+      <c r="M28" t="s">
+        <v>155</v>
+      </c>
+      <c r="N28" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AD27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" t="s">
-        <v>151</v>
-      </c>
-      <c r="E28">
-        <v>9054617215</v>
-      </c>
-      <c r="G28" t="s">
-        <v>152</v>
-      </c>
-      <c r="H28" t="s">
-        <v>153</v>
-      </c>
-      <c r="I28" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28">
-        <v>28000</v>
-      </c>
-      <c r="M28" t="s">
-        <v>154</v>
-      </c>
-      <c r="N28" t="s">
-        <v>155</v>
-      </c>
-      <c r="O28" t="e">
+      <c r="AE28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>198</v>
+      </c>
+      <c r="B29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29">
+        <v>9082054145</v>
+      </c>
+      <c r="F29" t="s">
+        <v>158</v>
+      </c>
+      <c r="G29" t="s">
+        <v>159</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29">
+        <v>17000</v>
+      </c>
+      <c r="L29" t="s">
+        <v>161</v>
+      </c>
+      <c r="M29" t="s">
+        <v>162</v>
+      </c>
+      <c r="N29" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="AF28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C29" t="s">
-        <v>156</v>
-      </c>
-      <c r="D29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29">
-        <v>9082054145</v>
-      </c>
-      <c r="G29" t="s">
-        <v>158</v>
-      </c>
-      <c r="H29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J29">
-        <v>17000</v>
-      </c>
-      <c r="M29" t="s">
-        <v>161</v>
-      </c>
-      <c r="N29" t="s">
-        <v>162</v>
-      </c>
-      <c r="O29" t="e">
-        <v>#VALUE!</v>
+      <c r="AD29" t="s">
+        <v>19</v>
       </c>
       <c r="AE29" t="s">
         <v>19</v>
@@ -3205,275 +3229,272 @@
       <c r="AI29" t="s">
         <v>19</v>
       </c>
-      <c r="AJ29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>199</v>
+      </c>
       <c r="B30" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" t="s">
         <v>163</v>
       </c>
+      <c r="F30">
+        <v>45337</v>
+      </c>
       <c r="G30">
-        <v>45337</v>
-      </c>
-      <c r="H30">
         <v>45702</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H30" t="s">
         <v>164</v>
       </c>
-      <c r="J30">
+      <c r="I30">
         <v>27000</v>
       </c>
-      <c r="M30" t="s">
+      <c r="L30" t="s">
         <v>165</v>
       </c>
+      <c r="M30">
+        <v>45427</v>
+      </c>
       <c r="N30">
-        <v>45427</v>
-      </c>
-      <c r="O30">
         <v>15</v>
       </c>
+      <c r="AG30" t="s">
+        <v>19</v>
+      </c>
       <c r="AH30" t="s">
         <v>19</v>
       </c>
       <c r="AI30" t="s">
         <v>19</v>
       </c>
-      <c r="AJ30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>200</v>
+      </c>
       <c r="B31" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" t="s">
         <v>166</v>
       </c>
+      <c r="F31">
+        <v>45339</v>
+      </c>
       <c r="G31">
-        <v>45339</v>
-      </c>
-      <c r="H31">
         <v>45704</v>
       </c>
-      <c r="I31" t="s">
+      <c r="H31" t="s">
         <v>164</v>
       </c>
-      <c r="J31">
+      <c r="I31">
         <v>22000</v>
       </c>
-      <c r="M31" t="s">
+      <c r="L31" t="s">
         <v>167</v>
       </c>
+      <c r="M31">
+        <v>45429</v>
+      </c>
       <c r="N31">
-        <v>45429</v>
-      </c>
-      <c r="O31">
         <v>17</v>
       </c>
+      <c r="AG31" t="s">
+        <v>19</v>
+      </c>
       <c r="AH31" t="s">
         <v>19</v>
       </c>
       <c r="AI31" t="s">
         <v>19</v>
       </c>
-      <c r="AJ31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>201</v>
+      </c>
       <c r="B32" t="s">
-        <v>201</v>
-      </c>
-      <c r="C32" t="s">
         <v>168</v>
       </c>
+      <c r="F32">
+        <v>45352</v>
+      </c>
       <c r="G32">
+        <v>45534</v>
+      </c>
+      <c r="H32" t="s">
+        <v>169</v>
+      </c>
+      <c r="I32">
+        <v>2000</v>
+      </c>
+      <c r="L32" t="s">
+        <v>170</v>
+      </c>
+      <c r="M32">
+        <v>45444</v>
+      </c>
+      <c r="N32">
+        <v>32</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>202</v>
+      </c>
+      <c r="B33" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33">
+        <v>45357</v>
+      </c>
+      <c r="G33">
+        <v>45721</v>
+      </c>
+      <c r="H33" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33">
+        <v>25000</v>
+      </c>
+      <c r="L33" t="s">
+        <v>173</v>
+      </c>
+      <c r="M33">
+        <v>45418</v>
+      </c>
+      <c r="N33">
+        <v>6</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34">
         <v>45352</v>
       </c>
-      <c r="H32">
-        <v>45534</v>
-      </c>
-      <c r="I32" t="s">
-        <v>169</v>
-      </c>
-      <c r="J32">
+      <c r="G34">
+        <v>46446</v>
+      </c>
+      <c r="H34" t="s">
+        <v>175</v>
+      </c>
+      <c r="I34">
+        <v>80000</v>
+      </c>
+      <c r="L34" t="s">
+        <v>170</v>
+      </c>
+      <c r="M34">
+        <v>45717</v>
+      </c>
+      <c r="N34">
+        <v>305</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35">
+        <v>45369</v>
+      </c>
+      <c r="G35">
+        <v>45733</v>
+      </c>
+      <c r="H35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35">
+        <v>25000</v>
+      </c>
+      <c r="L35" t="s">
+        <v>178</v>
+      </c>
+      <c r="M35">
+        <v>45430</v>
+      </c>
+      <c r="N35">
+        <v>18</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37">
+        <v>3500</v>
+      </c>
+      <c r="J37">
         <v>2000</v>
       </c>
-      <c r="M32" t="s">
-        <v>170</v>
-      </c>
-      <c r="N32">
-        <v>45444</v>
-      </c>
-      <c r="O32">
-        <v>32</v>
-      </c>
-      <c r="AI32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>202</v>
-      </c>
-      <c r="C33" t="s">
-        <v>171</v>
-      </c>
-      <c r="G33">
-        <v>45357</v>
-      </c>
-      <c r="H33">
-        <v>45721</v>
-      </c>
-      <c r="I33" t="s">
-        <v>172</v>
-      </c>
-      <c r="J33">
-        <v>25000</v>
-      </c>
-      <c r="M33" t="s">
-        <v>173</v>
-      </c>
-      <c r="N33">
-        <v>45418</v>
-      </c>
-      <c r="O33">
-        <v>6</v>
-      </c>
-      <c r="AI33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>203</v>
-      </c>
-      <c r="C34" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34">
-        <v>45352</v>
-      </c>
-      <c r="H34">
-        <v>46446</v>
-      </c>
-      <c r="I34" t="s">
-        <v>175</v>
-      </c>
-      <c r="J34">
-        <v>80000</v>
-      </c>
-      <c r="M34" t="s">
-        <v>170</v>
-      </c>
-      <c r="N34">
-        <v>45717</v>
-      </c>
-      <c r="O34">
-        <v>305</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AL34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AP34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>19</v>
-      </c>
-      <c r="AR34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>204</v>
-      </c>
-      <c r="C35" t="s">
-        <v>176</v>
-      </c>
-      <c r="G35">
-        <v>45369</v>
-      </c>
-      <c r="H35">
-        <v>45733</v>
-      </c>
-      <c r="I35" t="s">
-        <v>177</v>
-      </c>
-      <c r="J35">
-        <v>25000</v>
-      </c>
-      <c r="M35" t="s">
-        <v>178</v>
-      </c>
-      <c r="N35">
-        <v>45430</v>
-      </c>
-      <c r="O35">
-        <v>18</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>205</v>
-      </c>
-      <c r="J37">
-        <v>3500</v>
-      </c>
       <c r="K37">
-        <v>2000</v>
-      </c>
-      <c r="L37">
         <v>1500</v>
       </c>
     </row>
-    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>206</v>
       </c>
+      <c r="I38">
+        <v>60000</v>
+      </c>
       <c r="J38">
-        <v>60000</v>
+        <v>56000</v>
       </c>
       <c r="K38">
-        <v>56000</v>
-      </c>
-      <c r="L38">
         <v>4000</v>
       </c>
     </row>
@@ -3483,549 +3504,551 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4984F11C-3E8C-4651-9D71-421721A39121}">
-  <dimension ref="B3:AR10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F497259-F7AA-4B63-99B1-369AC6F977E5}">
+  <dimension ref="A3:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
         <v>12</v>
       </c>
+      <c r="O3">
+        <v>44774</v>
+      </c>
       <c r="P3">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="Q3">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="R3">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="S3">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="T3">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="U3">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="V3">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="W3">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="X3">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="Y3">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="Z3">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="AA3">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="AB3">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="AC3">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="AD3">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="AE3">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="AF3">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="AG3">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="AH3">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="AI3">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="AJ3">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="AK3">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="AL3">
-        <v>45444</v>
+        <v>45497</v>
       </c>
       <c r="AM3">
-        <v>45497</v>
+        <v>45528</v>
       </c>
       <c r="AN3">
-        <v>45528</v>
+        <v>45559</v>
       </c>
       <c r="AO3">
-        <v>45559</v>
+        <v>45589</v>
       </c>
       <c r="AP3">
-        <v>45589</v>
+        <v>45620</v>
       </c>
       <c r="AQ3">
-        <v>45620</v>
-      </c>
-      <c r="AR3">
         <v>45650</v>
       </c>
     </row>
-    <row r="4" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" t="s">
         <v>211</v>
       </c>
+      <c r="F4">
+        <v>45290</v>
+      </c>
       <c r="G4">
-        <v>45290</v>
-      </c>
-      <c r="H4">
         <v>45655</v>
       </c>
-      <c r="I4" t="s">
+      <c r="H4" t="s">
         <v>212</v>
       </c>
+      <c r="I4">
+        <v>27000</v>
+      </c>
       <c r="J4">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="K4">
+        <v>2000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M4">
+        <v>45411</v>
+      </c>
+      <c r="N4">
+        <v>-1</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" t="s">
+        <v>217</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s">
+        <v>219</v>
+      </c>
+      <c r="H5" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5">
+        <v>19000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M5" t="s">
+        <v>222</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6">
+        <v>45187</v>
+      </c>
+      <c r="G6">
+        <v>45365</v>
+      </c>
+      <c r="H6" t="s">
+        <v>227</v>
+      </c>
+      <c r="I6">
+        <v>14000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>228</v>
+      </c>
+      <c r="M6" t="s">
+        <v>229</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7">
+        <v>9285545989</v>
+      </c>
+      <c r="F7">
+        <v>45169</v>
+      </c>
+      <c r="G7">
+        <v>45534</v>
+      </c>
+      <c r="H7" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7">
         <v>25000</v>
       </c>
-      <c r="L4">
+      <c r="L7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M7" t="s">
+        <v>235</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8">
+        <v>9603500486</v>
+      </c>
+      <c r="F8" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8">
+        <v>62000</v>
+      </c>
+      <c r="J8">
+        <v>60000</v>
+      </c>
+      <c r="K8">
         <v>2000</v>
       </c>
-      <c r="M4" t="s">
-        <v>213</v>
-      </c>
-      <c r="N4">
-        <v>45411</v>
-      </c>
-      <c r="O4">
-        <v>-1</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>214</v>
-      </c>
-      <c r="C5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" t="s">
-        <v>216</v>
-      </c>
-      <c r="E5" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" t="s">
-        <v>219</v>
-      </c>
-      <c r="I5" t="s">
-        <v>220</v>
-      </c>
-      <c r="J5">
+      <c r="L8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M8" t="s">
+        <v>243</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9">
+        <v>9281800930</v>
+      </c>
+      <c r="F9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G9" t="s">
+        <v>248</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9">
+        <v>22000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>249</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G10">
+        <v>45702</v>
+      </c>
+      <c r="H10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10">
         <v>19000</v>
       </c>
-      <c r="M5" t="s">
-        <v>221</v>
-      </c>
-      <c r="N5" t="s">
-        <v>222</v>
-      </c>
-      <c r="O5" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="S5" t="s">
-        <v>19</v>
-      </c>
-      <c r="T5" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V5" t="s">
-        <v>19</v>
-      </c>
-      <c r="W5" t="s">
-        <v>19</v>
-      </c>
-      <c r="X5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>223</v>
-      </c>
-      <c r="C6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" t="s">
-        <v>226</v>
-      </c>
-      <c r="G6">
-        <v>45187</v>
-      </c>
-      <c r="H6">
-        <v>45365</v>
-      </c>
-      <c r="I6" t="s">
-        <v>227</v>
-      </c>
-      <c r="J6">
-        <v>14000</v>
-      </c>
-      <c r="M6" t="s">
-        <v>228</v>
-      </c>
-      <c r="N6" t="s">
-        <v>229</v>
-      </c>
-      <c r="O6" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="W6" t="s">
-        <v>19</v>
-      </c>
-      <c r="X6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C7" t="s">
-        <v>231</v>
-      </c>
-      <c r="D7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E7">
-        <v>9285545989</v>
-      </c>
-      <c r="G7">
-        <v>45169</v>
-      </c>
-      <c r="H7">
-        <v>45534</v>
-      </c>
-      <c r="I7" t="s">
-        <v>233</v>
-      </c>
-      <c r="J7">
-        <v>25000</v>
-      </c>
-      <c r="M7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" t="s">
-        <v>235</v>
-      </c>
-      <c r="O7" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8">
-        <v>9603500486</v>
-      </c>
-      <c r="G8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" t="s">
-        <v>241</v>
-      </c>
-      <c r="I8" t="s">
-        <v>177</v>
-      </c>
-      <c r="J8">
-        <v>62000</v>
-      </c>
-      <c r="K8">
-        <v>60000</v>
-      </c>
-      <c r="L8">
-        <v>2000</v>
-      </c>
-      <c r="M8" t="s">
-        <v>242</v>
-      </c>
-      <c r="N8" t="s">
-        <v>243</v>
-      </c>
-      <c r="O8" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>244</v>
-      </c>
-      <c r="C9" t="s">
-        <v>245</v>
-      </c>
-      <c r="D9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E9">
-        <v>9281800930</v>
-      </c>
-      <c r="G9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" t="s">
-        <v>248</v>
-      </c>
-      <c r="I9" t="s">
-        <v>177</v>
-      </c>
-      <c r="J9">
-        <v>22000</v>
-      </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>249</v>
-      </c>
-      <c r="O9" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="AG9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>19</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:44" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" t="s">
-        <v>253</v>
-      </c>
-      <c r="H10">
-        <v>45702</v>
-      </c>
-      <c r="I10" t="s">
-        <v>177</v>
-      </c>
-      <c r="J10">
-        <v>19000</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="L10" t="s">
         <v>165</v>
       </c>
+      <c r="M10">
+        <v>45397</v>
+      </c>
       <c r="N10">
-        <v>45397</v>
-      </c>
-      <c r="O10">
         <v>-15</v>
       </c>
+      <c r="AG10" t="s">
+        <v>19</v>
+      </c>
       <c r="AH10" t="s">
         <v>19</v>
       </c>
-      <c r="AI10" t="s">
-        <v>19</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AJ10" t="s">
         <v>254</v>
       </c>
     </row>

--- a/Import(1).xlsx
+++ b/Import(1).xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chester Martinez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951EFC0B-2A7B-4819-B7EE-67BE93A4368D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A5A6EF-5E4E-441B-B03B-F35E72CA9DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{CC891460-2381-4709-B72F-DB6A6781AF31}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="6" xr2:uid="{CC891460-2381-4709-B72F-DB6A6781AF31}"/>
   </bookViews>
   <sheets>
     <sheet name="BACOOR" sheetId="6" r:id="rId1"/>
     <sheet name="MAKATI" sheetId="7" r:id="rId2"/>
     <sheet name="MANDALUYONG" sheetId="5" r:id="rId3"/>
+    <sheet name="PASAY" sheetId="8" r:id="rId4"/>
+    <sheet name="BGC" sheetId="9" r:id="rId5"/>
+    <sheet name="PASIG" sheetId="10" r:id="rId6"/>
+    <sheet name="PARANAQUE" sheetId="11" r:id="rId7"/>
+    <sheet name="QC" sheetId="12" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="454">
   <si>
     <t>PROPERTY DETAILS</t>
   </si>
@@ -803,6 +808,603 @@
   </si>
   <si>
     <t>breach of contract this 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANHUA ZHAO </t>
+  </si>
+  <si>
+    <t>SEA RESIDENCES UNIT 1002 TOWER B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janell </t>
+  </si>
+  <si>
+    <t>09156532060</t>
+  </si>
+  <si>
+    <t>April 20,2023</t>
+  </si>
+  <si>
+    <t>April 19,2024</t>
+  </si>
+  <si>
+    <t>1+2 every 2months</t>
+  </si>
+  <si>
+    <t>20th/Monthly</t>
+  </si>
+  <si>
+    <t>May 20, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIDILAO </t>
+  </si>
+  <si>
+    <t>THE RADIANCE SOUTH TOWER-UNIT 22T</t>
+  </si>
+  <si>
+    <t>Thalia</t>
+  </si>
+  <si>
+    <t>09568029251</t>
+  </si>
+  <si>
+    <t>March 11,2023</t>
+  </si>
+  <si>
+    <t>March 10,2024</t>
+  </si>
+  <si>
+    <t>2+2month</t>
+  </si>
+  <si>
+    <t>11th/Monthly</t>
+  </si>
+  <si>
+    <t>February 11, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEUNG CHIK LAI </t>
+  </si>
+  <si>
+    <t>THE COAST RES. UNIT 2833</t>
+  </si>
+  <si>
+    <t>Agent - Thalia</t>
+  </si>
+  <si>
+    <t>March 22,2023</t>
+  </si>
+  <si>
+    <t>March 21,2024</t>
+  </si>
+  <si>
+    <t>22nd/Monthly</t>
+  </si>
+  <si>
+    <t>January 22, 2024</t>
+  </si>
+  <si>
+    <t>FRANCISCO V NOBLEZA</t>
+  </si>
+  <si>
+    <t>RADIANCE SOUTH TOWER UNIT 25N</t>
+  </si>
+  <si>
+    <t>Aguila</t>
+  </si>
+  <si>
+    <t>09705193285</t>
+  </si>
+  <si>
+    <t>July 20, 2023</t>
+  </si>
+  <si>
+    <t>July 19, 2024</t>
+  </si>
+  <si>
+    <t>2+1+month</t>
+  </si>
+  <si>
+    <t>JAN PIOLA DELA CRUZ</t>
+  </si>
+  <si>
+    <t>SHORE T2 UNIT 1669</t>
+  </si>
+  <si>
+    <t>1+2+month</t>
+  </si>
+  <si>
+    <t>26th / Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JINCHUN YUAN </t>
+  </si>
+  <si>
+    <t>TWO SERENDRA MERANTI UNIT 720</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ruth - broker </t>
+  </si>
+  <si>
+    <t>09175003821</t>
+  </si>
+  <si>
+    <t>1+3month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WU YUE </t>
+  </si>
+  <si>
+    <t>ICON PLAZA-32G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joanne - zte </t>
+  </si>
+  <si>
+    <t>09176383764</t>
+  </si>
+  <si>
+    <t>February 1,2023</t>
+  </si>
+  <si>
+    <t>January 31,2024</t>
+  </si>
+  <si>
+    <t>1+6month</t>
+  </si>
+  <si>
+    <t>1st/Monthly</t>
+  </si>
+  <si>
+    <t>February 1, 2024</t>
+  </si>
+  <si>
+    <t>TWO MARIEDIEN T2 1902</t>
+  </si>
+  <si>
+    <t>Dorothy</t>
+  </si>
+  <si>
+    <t>09760030971</t>
+  </si>
+  <si>
+    <t>May 17,2023</t>
+  </si>
+  <si>
+    <t>May 16,2024</t>
+  </si>
+  <si>
+    <t>2+3month</t>
+  </si>
+  <si>
+    <t>May 17, 2024</t>
+  </si>
+  <si>
+    <t>EAST GALLERY PLACE 46C</t>
+  </si>
+  <si>
+    <t>Agent - Jai</t>
+  </si>
+  <si>
+    <t>July 7,2023</t>
+  </si>
+  <si>
+    <t>July 6,2024</t>
+  </si>
+  <si>
+    <t>2+6month</t>
+  </si>
+  <si>
+    <t>June 7, 2024</t>
+  </si>
+  <si>
+    <t>JIAO HE</t>
+  </si>
+  <si>
+    <t>VENICE LUXURY RESIDENCES TE 11i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Tenant - Yui  </t>
+  </si>
+  <si>
+    <t>09664809451</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>VENICE LUXURY RESIDENCES TE 9i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zed </t>
+  </si>
+  <si>
+    <t>09772679941</t>
+  </si>
+  <si>
+    <t>October 5, 2023</t>
+  </si>
+  <si>
+    <t>October 4, 2024</t>
+  </si>
+  <si>
+    <t>VENICE LUXURY RESIDENCES TE 12i</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>09271371514</t>
+  </si>
+  <si>
+    <t>September 23, 2023</t>
+  </si>
+  <si>
+    <t>September 22, 2024</t>
+  </si>
+  <si>
+    <t>1+3monthly</t>
+  </si>
+  <si>
+    <t>mAY 23, 2024</t>
+  </si>
+  <si>
+    <t>CHOU TIANYI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEIBU TOWER 21M </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct Client - Lyrna </t>
+  </si>
+  <si>
+    <t>09178142305</t>
+  </si>
+  <si>
+    <t>October 12, 2023</t>
+  </si>
+  <si>
+    <t>October 11, 2024</t>
+  </si>
+  <si>
+    <t>2+2+monthly</t>
+  </si>
+  <si>
+    <t>12th/Monthly</t>
+  </si>
+  <si>
+    <t>April 12, 2024</t>
+  </si>
+  <si>
+    <t>AMADEO BAUTISTA</t>
+  </si>
+  <si>
+    <t>GRACE RESIDENCES UNIT 2250 TOWER 4</t>
+  </si>
+  <si>
+    <t>Agent: Cheska 0923484870</t>
+  </si>
+  <si>
+    <t>January 20, 2024</t>
+  </si>
+  <si>
+    <t>January 19, 2025</t>
+  </si>
+  <si>
+    <t>DANNY RESPETO</t>
+  </si>
+  <si>
+    <t>RIDGEWOOD TOWERS UNIT 1105</t>
+  </si>
+  <si>
+    <t>February 13, 2024</t>
+  </si>
+  <si>
+    <t>August 12, 2024</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>LI LIYUAN</t>
+  </si>
+  <si>
+    <t>BELLAGIO T2 UNIT 26I</t>
+  </si>
+  <si>
+    <t>Charisse Celevante</t>
+  </si>
+  <si>
+    <t>3+3+ montly</t>
+  </si>
+  <si>
+    <t>WAN MIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BELLAGIO PS B3 SLOT 10 </t>
+  </si>
+  <si>
+    <t>6+6</t>
+  </si>
+  <si>
+    <t>11th / Semi Annual</t>
+  </si>
+  <si>
+    <t>ZHAO XIXIAN</t>
+  </si>
+  <si>
+    <t>ADB 6K</t>
+  </si>
+  <si>
+    <t>Direct to client - Melissa</t>
+  </si>
+  <si>
+    <t>09661647904</t>
+  </si>
+  <si>
+    <t>April 30,2023</t>
+  </si>
+  <si>
+    <t>April 29,2024</t>
+  </si>
+  <si>
+    <t>30th/Monthly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUN XIE </t>
+  </si>
+  <si>
+    <t>BXP PS-1084</t>
+  </si>
+  <si>
+    <t>September 18, 2023</t>
+  </si>
+  <si>
+    <t>September 17, 2024</t>
+  </si>
+  <si>
+    <t>6 months + 6</t>
+  </si>
+  <si>
+    <t>PMR CELESTE 3131</t>
+  </si>
+  <si>
+    <t>Direct Client- 09604786413- Franziska wildhaber</t>
+  </si>
+  <si>
+    <t>October 2, 2023</t>
+  </si>
+  <si>
+    <t>April 1, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd/Monthly </t>
+  </si>
+  <si>
+    <t>WANG YAN&amp;LIFANG LIU</t>
+  </si>
+  <si>
+    <t>PMR CELESTE 3410</t>
+  </si>
+  <si>
+    <t>jasmine</t>
+  </si>
+  <si>
+    <t>09179997630</t>
+  </si>
+  <si>
+    <t>September 25, 2023</t>
+  </si>
+  <si>
+    <t>September 24, 2024</t>
+  </si>
+  <si>
+    <t>aPRIL 25, 2024</t>
+  </si>
+  <si>
+    <t>BXP Weston  PS- 2036</t>
+  </si>
+  <si>
+    <t>eric direct client</t>
+  </si>
+  <si>
+    <t>6 months+6</t>
+  </si>
+  <si>
+    <t>PMR ASTRA 3308</t>
+  </si>
+  <si>
+    <t>Sherry ann</t>
+  </si>
+  <si>
+    <t>January 1, 2024</t>
+  </si>
+  <si>
+    <t>December 31, 2024</t>
+  </si>
+  <si>
+    <t>May 1, 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUAN XIOANG </t>
+  </si>
+  <si>
+    <t>PMR ASTRA 2305</t>
+  </si>
+  <si>
+    <t>kiana</t>
+  </si>
+  <si>
+    <t>December 10, 2024</t>
+  </si>
+  <si>
+    <t>December 9, 2024</t>
+  </si>
+  <si>
+    <t>10th/Monthly</t>
+  </si>
+  <si>
+    <t>May10, 2024</t>
+  </si>
+  <si>
+    <t>PMR ASTRA 3004</t>
+  </si>
+  <si>
+    <t>Tenant: Semen Evtukhov</t>
+  </si>
+  <si>
+    <t>09451832141</t>
+  </si>
+  <si>
+    <t>June 16, 2024</t>
+  </si>
+  <si>
+    <t>WU XIAOWEI</t>
+  </si>
+  <si>
+    <t>PMR CELESTE 1410</t>
+  </si>
+  <si>
+    <t>Sancha Grumo</t>
+  </si>
+  <si>
+    <t>09774326733</t>
+  </si>
+  <si>
+    <t>December 28, 2023</t>
+  </si>
+  <si>
+    <t>December 27, 2024</t>
+  </si>
+  <si>
+    <t>28th/Monthly</t>
+  </si>
+  <si>
+    <t>April 28, 2024</t>
+  </si>
+  <si>
+    <t>ZHNGEHUA ZHU</t>
+  </si>
+  <si>
+    <t>BXP WESTON 2702</t>
+  </si>
+  <si>
+    <t>January 7, 2024</t>
+  </si>
+  <si>
+    <t>January 6, 2025</t>
+  </si>
+  <si>
+    <t>PAUL LOUIE VILLACORTA</t>
+  </si>
+  <si>
+    <t>BXP BRENT PS. A4037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct client: Cherry Pie </t>
+  </si>
+  <si>
+    <t>09208982422</t>
+  </si>
+  <si>
+    <t>January 5, 2025</t>
+  </si>
+  <si>
+    <t>6+6months</t>
+  </si>
+  <si>
+    <t>July 20, 2024</t>
+  </si>
+  <si>
+    <t>JUAN PAOLO IBARRA</t>
+  </si>
+  <si>
+    <t>BXP BRENT 2224</t>
+  </si>
+  <si>
+    <t>Paulo Ibarra</t>
+  </si>
+  <si>
+    <t>February 3, 2024</t>
+  </si>
+  <si>
+    <t>February 2, 2026</t>
+  </si>
+  <si>
+    <t>May 3, 2024</t>
+  </si>
+  <si>
+    <t>BXP BRENT 3614</t>
+  </si>
+  <si>
+    <t>Louie Villacorta</t>
+  </si>
+  <si>
+    <t>0917 526 9147</t>
+  </si>
+  <si>
+    <t>January 30, 2024</t>
+  </si>
+  <si>
+    <t>January 29, 2025</t>
+  </si>
+  <si>
+    <t>April 29, 2024</t>
+  </si>
+  <si>
+    <t>BRIXTON PLACE BRENT 2114</t>
+  </si>
+  <si>
+    <t>30th / monthly</t>
+  </si>
+  <si>
+    <t>LE THI MINH THU</t>
+  </si>
+  <si>
+    <t>BAY SHORE CLUSTER 1UNIT 5M</t>
+  </si>
+  <si>
+    <t>Joyce</t>
+  </si>
+  <si>
+    <t>09365276547</t>
+  </si>
+  <si>
+    <t>December 27,2022</t>
+  </si>
+  <si>
+    <t>1+3+quarterly</t>
+  </si>
+  <si>
+    <t>27th/Monthly</t>
+  </si>
+  <si>
+    <t>May 27, 2024</t>
+  </si>
+  <si>
+    <t>EASTWOOD PARKVIEW TOWER 2 UNIT 21F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct client - Rolane </t>
+  </si>
+  <si>
+    <t>09185622482</t>
+  </si>
+  <si>
+    <t>July 15,2023</t>
+  </si>
+  <si>
+    <t>July 13,2024</t>
+  </si>
+  <si>
+    <t>EASTWOOD PARKVIEW TOWER 2 UNIT 19D</t>
+  </si>
+  <si>
+    <t>December 21, 2023</t>
+  </si>
+  <si>
+    <t>December 20, 2024</t>
   </si>
 </sst>
 </file>
@@ -1337,7 +1939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D79EE19-AA11-4D6D-80D6-D45CA31D333D}">
   <dimension ref="A3:AQ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -3507,8 +4109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F497259-F7AA-4B63-99B1-369AC6F977E5}">
   <dimension ref="A3:AQ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AQ10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AK14" sqref="AK14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4055,4 +4657,2578 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF092755-9F92-4B52-8AEB-C364F3B8D256}">
+  <dimension ref="A3:AD8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>44986</v>
+      </c>
+      <c r="P3">
+        <v>45017</v>
+      </c>
+      <c r="Q3">
+        <v>45047</v>
+      </c>
+      <c r="R3">
+        <v>45078</v>
+      </c>
+      <c r="S3">
+        <v>45108</v>
+      </c>
+      <c r="T3">
+        <v>45139</v>
+      </c>
+      <c r="U3">
+        <v>45170</v>
+      </c>
+      <c r="V3">
+        <v>45200</v>
+      </c>
+      <c r="W3">
+        <v>45231</v>
+      </c>
+      <c r="X3">
+        <v>45261</v>
+      </c>
+      <c r="Y3">
+        <v>45292</v>
+      </c>
+      <c r="Z3">
+        <v>45323</v>
+      </c>
+      <c r="AA3">
+        <v>45352</v>
+      </c>
+      <c r="AB3">
+        <v>45383</v>
+      </c>
+      <c r="AC3">
+        <v>45413</v>
+      </c>
+      <c r="AD3">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4">
+        <v>23000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>262</v>
+      </c>
+      <c r="M4" t="s">
+        <v>263</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F5" t="s">
+        <v>268</v>
+      </c>
+      <c r="G5" t="s">
+        <v>269</v>
+      </c>
+      <c r="H5" t="s">
+        <v>270</v>
+      </c>
+      <c r="I5">
+        <v>85000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>271</v>
+      </c>
+      <c r="M5" t="s">
+        <v>272</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>19</v>
+      </c>
+      <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6">
+        <v>25000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>278</v>
+      </c>
+      <c r="M6" t="s">
+        <v>279</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S6" t="s">
+        <v>19</v>
+      </c>
+      <c r="T6" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V6" t="s">
+        <v>19</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" t="s">
+        <v>286</v>
+      </c>
+      <c r="I7">
+        <v>34000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" t="s">
+        <v>263</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8">
+        <v>45377</v>
+      </c>
+      <c r="G8">
+        <v>45741</v>
+      </c>
+      <c r="H8" t="s">
+        <v>289</v>
+      </c>
+      <c r="I8">
+        <v>25000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>290</v>
+      </c>
+      <c r="M8">
+        <v>45408</v>
+      </c>
+      <c r="N8">
+        <v>-4</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA0B684-A18D-4EF8-B84C-9BB356AE8C36}">
+  <dimension ref="A3:AP15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="33.5703125" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>44805</v>
+      </c>
+      <c r="P3">
+        <v>44835</v>
+      </c>
+      <c r="Q3">
+        <v>44866</v>
+      </c>
+      <c r="R3">
+        <v>44896</v>
+      </c>
+      <c r="S3">
+        <v>44927</v>
+      </c>
+      <c r="T3">
+        <v>44958</v>
+      </c>
+      <c r="U3">
+        <v>44986</v>
+      </c>
+      <c r="V3">
+        <v>45017</v>
+      </c>
+      <c r="W3">
+        <v>45047</v>
+      </c>
+      <c r="X3">
+        <v>45078</v>
+      </c>
+      <c r="Y3">
+        <v>45108</v>
+      </c>
+      <c r="Z3">
+        <v>45139</v>
+      </c>
+      <c r="AA3">
+        <v>45170</v>
+      </c>
+      <c r="AB3">
+        <v>45200</v>
+      </c>
+      <c r="AC3">
+        <v>45231</v>
+      </c>
+      <c r="AD3">
+        <v>45261</v>
+      </c>
+      <c r="AE3">
+        <v>45292</v>
+      </c>
+      <c r="AF3">
+        <v>45323</v>
+      </c>
+      <c r="AG3">
+        <v>45352</v>
+      </c>
+      <c r="AH3">
+        <v>45383</v>
+      </c>
+      <c r="AI3">
+        <v>45413</v>
+      </c>
+      <c r="AJ3">
+        <v>45444</v>
+      </c>
+      <c r="AK3">
+        <v>45497</v>
+      </c>
+      <c r="AL3">
+        <v>45528</v>
+      </c>
+      <c r="AM3">
+        <v>45559</v>
+      </c>
+      <c r="AN3">
+        <v>45589</v>
+      </c>
+      <c r="AO3">
+        <v>45620</v>
+      </c>
+      <c r="AP3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F4">
+        <v>45176</v>
+      </c>
+      <c r="G4">
+        <v>45541</v>
+      </c>
+      <c r="H4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4">
+        <v>31500</v>
+      </c>
+      <c r="L4" t="s">
+        <v>221</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" t="s">
+        <v>301</v>
+      </c>
+      <c r="H5" t="s">
+        <v>302</v>
+      </c>
+      <c r="I5">
+        <v>36042.11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>303</v>
+      </c>
+      <c r="M5" t="s">
+        <v>304</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>307</v>
+      </c>
+      <c r="F6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" t="s">
+        <v>309</v>
+      </c>
+      <c r="H6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6">
+        <v>130000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" t="s">
+        <v>316</v>
+      </c>
+      <c r="I7">
+        <v>250000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M7" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8">
+        <v>45244</v>
+      </c>
+      <c r="G8">
+        <v>45609</v>
+      </c>
+      <c r="H8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8">
+        <v>22000</v>
+      </c>
+      <c r="L8" t="s">
+        <v>242</v>
+      </c>
+      <c r="M8" t="s">
+        <v>243</v>
+      </c>
+      <c r="N8" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H9" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>23000</v>
+      </c>
+      <c r="J9">
+        <v>22000</v>
+      </c>
+      <c r="K9">
+        <v>1000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>318</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" t="s">
+        <v>329</v>
+      </c>
+      <c r="D10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F10" t="s">
+        <v>331</v>
+      </c>
+      <c r="G10" t="s">
+        <v>332</v>
+      </c>
+      <c r="H10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I10">
+        <v>23000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="s">
+        <v>334</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C11" t="s">
+        <v>337</v>
+      </c>
+      <c r="D11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" t="s">
+        <v>339</v>
+      </c>
+      <c r="G11" t="s">
+        <v>340</v>
+      </c>
+      <c r="H11" t="s">
+        <v>341</v>
+      </c>
+      <c r="I11">
+        <v>32000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>342</v>
+      </c>
+      <c r="M11" t="s">
+        <v>343</v>
+      </c>
+      <c r="N11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B12" t="s">
+        <v>345</v>
+      </c>
+      <c r="C12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12">
+        <v>98559900819</v>
+      </c>
+      <c r="F12" t="s">
+        <v>347</v>
+      </c>
+      <c r="G12" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12">
+        <v>18500</v>
+      </c>
+      <c r="L12" t="s">
+        <v>262</v>
+      </c>
+      <c r="M12">
+        <v>45432</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" t="s">
+        <v>352</v>
+      </c>
+      <c r="H13" t="s">
+        <v>353</v>
+      </c>
+      <c r="I13">
+        <v>17000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>242</v>
+      </c>
+      <c r="M13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>356</v>
+      </c>
+      <c r="D14">
+        <v>9278180151</v>
+      </c>
+      <c r="F14">
+        <v>45352</v>
+      </c>
+      <c r="G14">
+        <v>45716</v>
+      </c>
+      <c r="H14" t="s">
+        <v>357</v>
+      </c>
+      <c r="I14">
+        <v>60000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>170</v>
+      </c>
+      <c r="M14">
+        <v>45444</v>
+      </c>
+      <c r="N14">
+        <v>32</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15">
+        <v>45393</v>
+      </c>
+      <c r="G15">
+        <v>45757</v>
+      </c>
+      <c r="H15" t="s">
+        <v>360</v>
+      </c>
+      <c r="I15">
+        <v>5000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>361</v>
+      </c>
+      <c r="M15">
+        <v>45576</v>
+      </c>
+      <c r="N15">
+        <v>164</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83390BD3-7633-49C9-B901-3DD43D6E64C8}">
+  <dimension ref="A3:AJ17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>44986</v>
+      </c>
+      <c r="P3">
+        <v>45017</v>
+      </c>
+      <c r="Q3">
+        <v>45047</v>
+      </c>
+      <c r="R3">
+        <v>45078</v>
+      </c>
+      <c r="S3">
+        <v>45108</v>
+      </c>
+      <c r="T3">
+        <v>45139</v>
+      </c>
+      <c r="U3">
+        <v>45170</v>
+      </c>
+      <c r="V3">
+        <v>45200</v>
+      </c>
+      <c r="W3">
+        <v>45231</v>
+      </c>
+      <c r="X3">
+        <v>45261</v>
+      </c>
+      <c r="Y3">
+        <v>45292</v>
+      </c>
+      <c r="Z3">
+        <v>45323</v>
+      </c>
+      <c r="AA3">
+        <v>45352</v>
+      </c>
+      <c r="AB3">
+        <v>45383</v>
+      </c>
+      <c r="AC3">
+        <v>45413</v>
+      </c>
+      <c r="AD3">
+        <v>45444</v>
+      </c>
+      <c r="AE3">
+        <v>45497</v>
+      </c>
+      <c r="AF3">
+        <v>45528</v>
+      </c>
+      <c r="AG3">
+        <v>45559</v>
+      </c>
+      <c r="AH3">
+        <v>45589</v>
+      </c>
+      <c r="AI3">
+        <v>45620</v>
+      </c>
+      <c r="AJ3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" t="s">
+        <v>367</v>
+      </c>
+      <c r="H4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I4">
+        <v>18000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>368</v>
+      </c>
+      <c r="M4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G5" t="s">
+        <v>372</v>
+      </c>
+      <c r="H5" t="s">
+        <v>373</v>
+      </c>
+      <c r="I5">
+        <v>6300</v>
+      </c>
+      <c r="J5">
+        <v>5500</v>
+      </c>
+      <c r="K5">
+        <v>800</v>
+      </c>
+      <c r="L5" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5">
+        <v>45522</v>
+      </c>
+      <c r="N5">
+        <v>110</v>
+      </c>
+      <c r="U5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V5" t="s">
+        <v>19</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G6" t="s">
+        <v>377</v>
+      </c>
+      <c r="H6" t="s">
+        <v>310</v>
+      </c>
+      <c r="I6">
+        <v>21000</v>
+      </c>
+      <c r="J6">
+        <v>20000</v>
+      </c>
+      <c r="K6">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>19000</v>
+      </c>
+      <c r="J7">
+        <v>18000</v>
+      </c>
+      <c r="K7">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>385</v>
+      </c>
+      <c r="N7" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V7" t="s">
+        <v>19</v>
+      </c>
+      <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F8">
+        <v>45205</v>
+      </c>
+      <c r="G8">
+        <v>45570</v>
+      </c>
+      <c r="H8" t="s">
+        <v>388</v>
+      </c>
+      <c r="I8">
+        <v>7000</v>
+      </c>
+      <c r="J8">
+        <v>6500</v>
+      </c>
+      <c r="K8">
+        <v>500</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8">
+        <v>45417</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
+        <v>19</v>
+      </c>
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" t="s">
+        <v>391</v>
+      </c>
+      <c r="G9" t="s">
+        <v>392</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9">
+        <v>22000</v>
+      </c>
+      <c r="J9">
+        <v>20000</v>
+      </c>
+      <c r="K9">
+        <v>2000</v>
+      </c>
+      <c r="L9" t="s">
+        <v>303</v>
+      </c>
+      <c r="M9" t="s">
+        <v>393</v>
+      </c>
+      <c r="N9" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B10" t="s">
+        <v>395</v>
+      </c>
+      <c r="C10" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10">
+        <v>9562837905</v>
+      </c>
+      <c r="F10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G10" t="s">
+        <v>398</v>
+      </c>
+      <c r="H10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10">
+        <v>19000</v>
+      </c>
+      <c r="J10">
+        <v>18000</v>
+      </c>
+      <c r="K10">
+        <v>1000</v>
+      </c>
+      <c r="L10" t="s">
+        <v>399</v>
+      </c>
+      <c r="M10" t="s">
+        <v>400</v>
+      </c>
+      <c r="N10" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="B11" t="s">
+        <v>401</v>
+      </c>
+      <c r="C11" t="s">
+        <v>402</v>
+      </c>
+      <c r="D11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F11" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>404</v>
+      </c>
+      <c r="H11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11">
+        <v>20000</v>
+      </c>
+      <c r="J11">
+        <v>18000</v>
+      </c>
+      <c r="K11">
+        <v>2000</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" t="s">
+        <v>311</v>
+      </c>
+      <c r="N11" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D12" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" t="s">
+        <v>409</v>
+      </c>
+      <c r="G12" t="s">
+        <v>410</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12">
+        <v>21000</v>
+      </c>
+      <c r="J12">
+        <v>20000</v>
+      </c>
+      <c r="K12">
+        <v>1000</v>
+      </c>
+      <c r="L12" t="s">
+        <v>411</v>
+      </c>
+      <c r="M12" t="s">
+        <v>412</v>
+      </c>
+      <c r="N12" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="X12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F13" t="s">
+        <v>415</v>
+      </c>
+      <c r="G13" t="s">
+        <v>416</v>
+      </c>
+      <c r="H13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13">
+        <v>27000</v>
+      </c>
+      <c r="L13" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" t="s">
+        <v>92</v>
+      </c>
+      <c r="N13" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>236</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>417</v>
+      </c>
+      <c r="B14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G14" t="s">
+        <v>421</v>
+      </c>
+      <c r="H14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I14">
+        <v>7000</v>
+      </c>
+      <c r="L14" t="s">
+        <v>262</v>
+      </c>
+      <c r="M14" t="s">
+        <v>423</v>
+      </c>
+      <c r="N14" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D15">
+        <v>9661892087</v>
+      </c>
+      <c r="F15" t="s">
+        <v>427</v>
+      </c>
+      <c r="G15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15">
+        <v>31000</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="s">
+        <v>429</v>
+      </c>
+      <c r="N15" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B16" t="s">
+        <v>430</v>
+      </c>
+      <c r="C16" t="s">
+        <v>431</v>
+      </c>
+      <c r="D16" t="s">
+        <v>432</v>
+      </c>
+      <c r="F16" t="s">
+        <v>433</v>
+      </c>
+      <c r="G16" t="s">
+        <v>434</v>
+      </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16">
+        <v>25000</v>
+      </c>
+      <c r="L16" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" t="s">
+        <v>435</v>
+      </c>
+      <c r="N16" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" t="s">
+        <v>436</v>
+      </c>
+      <c r="F17">
+        <v>45381</v>
+      </c>
+      <c r="G17">
+        <v>45745</v>
+      </c>
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17">
+        <v>23000</v>
+      </c>
+      <c r="L17" t="s">
+        <v>437</v>
+      </c>
+      <c r="M17">
+        <v>45412</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F7E9D4A-C624-4710-86FC-2A076FE5B89F}">
+  <dimension ref="A3:AG4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="11" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>44896</v>
+      </c>
+      <c r="P3">
+        <v>44927</v>
+      </c>
+      <c r="Q3">
+        <v>44958</v>
+      </c>
+      <c r="R3">
+        <v>44986</v>
+      </c>
+      <c r="S3">
+        <v>45017</v>
+      </c>
+      <c r="T3">
+        <v>45047</v>
+      </c>
+      <c r="U3">
+        <v>45078</v>
+      </c>
+      <c r="V3">
+        <v>45108</v>
+      </c>
+      <c r="W3">
+        <v>45139</v>
+      </c>
+      <c r="X3">
+        <v>45170</v>
+      </c>
+      <c r="Y3">
+        <v>45200</v>
+      </c>
+      <c r="Z3">
+        <v>45231</v>
+      </c>
+      <c r="AA3">
+        <v>45261</v>
+      </c>
+      <c r="AB3">
+        <v>45292</v>
+      </c>
+      <c r="AC3">
+        <v>45323</v>
+      </c>
+      <c r="AD3">
+        <v>45352</v>
+      </c>
+      <c r="AE3">
+        <v>45383</v>
+      </c>
+      <c r="AF3">
+        <v>45413</v>
+      </c>
+      <c r="AG3">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4">
+        <v>45469</v>
+      </c>
+      <c r="H4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I4">
+        <v>50000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>444</v>
+      </c>
+      <c r="M4" t="s">
+        <v>445</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1049E2D-A7B0-40DC-8459-499142AEC6E6}">
+  <dimension ref="A3:AL5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="17.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>44743</v>
+      </c>
+      <c r="P3">
+        <v>44774</v>
+      </c>
+      <c r="Q3">
+        <v>44805</v>
+      </c>
+      <c r="R3">
+        <v>44835</v>
+      </c>
+      <c r="S3">
+        <v>44866</v>
+      </c>
+      <c r="T3">
+        <v>44896</v>
+      </c>
+      <c r="U3">
+        <v>44927</v>
+      </c>
+      <c r="V3">
+        <v>44958</v>
+      </c>
+      <c r="W3">
+        <v>44986</v>
+      </c>
+      <c r="X3">
+        <v>45017</v>
+      </c>
+      <c r="Y3">
+        <v>45047</v>
+      </c>
+      <c r="Z3">
+        <v>45078</v>
+      </c>
+      <c r="AA3">
+        <v>45108</v>
+      </c>
+      <c r="AB3">
+        <v>45139</v>
+      </c>
+      <c r="AC3">
+        <v>45170</v>
+      </c>
+      <c r="AD3">
+        <v>45200</v>
+      </c>
+      <c r="AE3">
+        <v>45231</v>
+      </c>
+      <c r="AF3">
+        <v>45261</v>
+      </c>
+      <c r="AG3">
+        <v>45292</v>
+      </c>
+      <c r="AH3">
+        <v>45323</v>
+      </c>
+      <c r="AI3">
+        <v>45352</v>
+      </c>
+      <c r="AJ3">
+        <v>45383</v>
+      </c>
+      <c r="AK3">
+        <v>45413</v>
+      </c>
+      <c r="AL3">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>448</v>
+      </c>
+      <c r="F4" t="s">
+        <v>449</v>
+      </c>
+      <c r="G4" t="s">
+        <v>450</v>
+      </c>
+      <c r="H4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I4">
+        <v>15000</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" t="s">
+        <v>19</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G5" t="s">
+        <v>453</v>
+      </c>
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5">
+        <v>28000</v>
+      </c>
+      <c r="J5">
+        <v>26000</v>
+      </c>
+      <c r="K5">
+        <v>2000</v>
+      </c>
+      <c r="L5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>236</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>